--- a/biology/Zoologie/Colombe_à_calotte_grise/Colombe_à_calotte_grise.xlsx
+++ b/biology/Zoologie/Colombe_à_calotte_grise/Colombe_à_calotte_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptotila plumbeiceps
 La Colombe à calotte grise, (Leptotila plumbeiceps) est une espèce d'oiseaux de la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande colombe des régions tropicales du Nouveau Monde vivant de l'est du Mexique à l'ouest du Panama. Elle était autrefois considérée comme de la même espèce que la Colombe à front gris, L. rufaxilla, d'Amérique du Sud et la colombe de Grenade, L. wellsi, de la Grenade.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à calotte grise habite le sous-étage des forêts, les zones de broussailles et les plantations de cacao.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle construit un nid de grosses branches dans un arbre et y pond deux œufs blancs. L'incubation est d'environ 14 jours et l'envol se fait au bout de 15 autres jours.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure environ 25 cm de long et pèse aux alentours de 155 g. L'adulte a une couronne et le cou gris, ce dernier montrant des reflets pourpres. Elle a le front et la gorge blanchâtres. Les parties supérieures et les ailes sont brun-olive et le ventre rosâtre ombré de blanc. La queue est longue à bout blanc. Le bec est noir et les pattes rouges. Les jeunes oiseaux n'ont pas le gris sur la tête et ont des bords chamois sur les plumes du dos.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Colombe à tête grise est généralement considérée comme vivant isolément ou par paires. Son vol est rapide et direct, avec les battements réguliers et des claquements d'ailes caractéristiques des pigeons en général.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La nourriture de cette espèce est constituée principalement de fruits et de graines recherchés sur le sol.
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colombe_%C3%A0_calotte_grise</t>
+          <t>Colombe_à_calotte_grise</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 11.1, 2021) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Leptotila plumbeiceps plumbeiceps, Sclater, PL &amp; Salvin, 1868 ;
